--- a/evaluation/training-evaluation-2.xlsx
+++ b/evaluation/training-evaluation-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - University of Cyprus\ucl\thesis\workspace\cell-tracking-ucl-thesis\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B44472-0185-457F-A0BE-016FD5FF6F9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631424A-7934-45E3-9D4F-4D72C89A56AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{DD5E1588-BB96-47E2-8F58-F1B1A8926599}"/>
   </bookViews>
@@ -82,6 +82,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -121,15 +124,265 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25252485-713D-4CC8-BE64-95040359BD5A}">
   <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -458,20 +711,20 @@
     <col min="3" max="3" width="10.3671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.47265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.47265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.20703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.89453125" customWidth="1"/>
+    <col min="7" max="8" width="7.83984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.9453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7890625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.41796875" customWidth="1"/>
+    <col min="16" max="16" width="14.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,7 +740,7 @@
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H2" t="s">
@@ -499,23 +752,23 @@
       <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0</v>
       </c>
@@ -532,32 +785,32 @@
         <f t="shared" ref="F3:F16" si="0">A3</f>
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.81961899999999999</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.81978700000000004</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <v>0.81942899999999996</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.81980900000000001</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L16" si="1">A3</f>
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="5">
         <v>0.75429999999999997</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="12">
         <v>0.33700000000000002</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="12">
         <v>0.88200000000000001</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="16">
         <v>4.4482999999999997</v>
       </c>
     </row>
@@ -578,32 +831,32 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.82237199999999999</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.80173000000000005</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>0.84575500000000003</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.79898899999999995</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="10">
         <v>0.75434199999999996</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>0.88194300000000003</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>0.33711400000000002</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>4.4482980000000003</v>
       </c>
     </row>
@@ -624,32 +877,32 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.82373399999999997</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.84095399999999998</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>0.80422700000000003</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.84324200000000005</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
         <v>0.77422899999999995</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>0.83016400000000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>0.27050099999999999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>3.9807109999999999</v>
       </c>
     </row>
@@ -670,32 +923,32 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0.82491499999999995</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>0.88114000000000003</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>0.761216</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.88861400000000001</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
         <v>0.766073</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>0.87617800000000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>0.30142200000000002</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>4.1421279999999996</v>
       </c>
     </row>
@@ -716,32 +969,32 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>0.82968399999999998</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.82073399999999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>0.83982199999999996</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.819546</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="10">
         <v>0.76505999999999996</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>0.87920299999999996</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>0.31832199999999999</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>4.2450419999999998</v>
       </c>
     </row>
@@ -762,32 +1015,32 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.82369700000000001</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>0.83335499999999996</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>0.81275500000000001</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>0.83463799999999999</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="10">
         <v>0.77188299999999999</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>0.90268099999999996</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>0.31630000000000003</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>4.3132289999999998</v>
       </c>
     </row>
@@ -808,32 +1061,32 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.81388400000000005</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.80146099999999998</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>0.82795700000000005</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.79981100000000005</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="10">
         <v>0.78902600000000001</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>0.84572000000000003</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>0.25174400000000002</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>4.4234850000000003</v>
       </c>
     </row>
@@ -855,32 +1108,32 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.82188799999999995</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.82765999999999995</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>0.81535000000000002</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>0.828426</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
         <v>0.77348499999999998</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>0.856402</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>0.28414800000000001</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>4.2779699999999998</v>
       </c>
     </row>
@@ -902,32 +1155,32 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.82146300000000005</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>0.78969599999999995</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>0.85781399999999997</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.785111</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="10">
         <v>0.77632400000000001</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <v>0.87990000000000002</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>0.29889500000000002</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>4.3168059999999997</v>
       </c>
     </row>
@@ -949,20 +1202,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="10">
         <v>0.71167899999999995</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>0.64597499999999997</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>0.18839</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>4.8175569999999999</v>
       </c>
     </row>
@@ -984,20 +1237,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="10">
         <v>0.69457999999999998</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <v>0.61674700000000005</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>0.18387800000000001</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>5.3275360000000003</v>
       </c>
     </row>
@@ -1019,20 +1272,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="10">
         <v>0.70335800000000004</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>0.71557599999999999</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>0.249224</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>4.441217</v>
       </c>
     </row>
@@ -1054,24 +1307,24 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="10">
         <v>0.74226199999999998</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>0.78203100000000003</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>0.27028999999999997</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>5.0468590000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -1089,28 +1342,29 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="14">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="11">
         <v>0.71115700000000004</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="8">
         <v>0.85785299999999998</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="8">
         <v>0.386102</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="9">
         <v>5.4143470000000002</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="6:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="18" spans="6:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H18" t="s">
@@ -1128,16 +1382,16 @@
         <f>A19</f>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.79639000000000004</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>0.820079</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <v>0.76705999999999996</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.82572000000000001</v>
       </c>
     </row>
@@ -1146,16 +1400,16 @@
         <f>A4</f>
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>0.79016699999999995</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.79143399999999997</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <v>0.78782700000000006</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.79250600000000004</v>
       </c>
     </row>
@@ -1164,16 +1418,16 @@
         <f>A5</f>
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>0.80175300000000005</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.844082</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <v>0.75077799999999995</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>0.85272800000000004</v>
       </c>
     </row>
@@ -1182,16 +1436,16 @@
         <f t="shared" ref="F22:F32" si="3">A6</f>
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>0.80069199999999996</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>0.87546900000000005</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <v>0.71234600000000003</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.88903799999999999</v>
       </c>
     </row>
@@ -1200,16 +1454,16 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>0.80625199999999997</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>0.78526099999999999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <v>0.83088499999999998</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>0.78161899999999995</v>
       </c>
     </row>
@@ -1218,16 +1472,16 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>0.81778399999999996</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.79618999999999995</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <v>0.84335199999999999</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0.79221699999999995</v>
       </c>
     </row>
@@ -1236,16 +1490,16 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>0.79573199999999999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.77457699999999996</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <v>0.82010499999999997</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0.77135799999999999</v>
       </c>
     </row>
@@ -1254,16 +1508,16 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>0.79466999999999999</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.77261899999999994</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <v>0.82010499999999997</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>0.76923600000000003</v>
       </c>
     </row>
@@ -1272,16 +1526,16 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>0.82264300000000001</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>0.80071300000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <v>0.84740000000000004</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0.79788599999999998</v>
       </c>
     </row>
@@ -1290,16 +1544,16 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>0.80057800000000001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>0.806307</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <v>0.79413900000000004</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>0.80701699999999998</v>
       </c>
     </row>
@@ -1308,16 +1562,16 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>0.78024199999999999</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.80403400000000003</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <v>0.75162700000000005</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0.80885700000000005</v>
       </c>
     </row>
@@ -1326,16 +1580,16 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>0.80096900000000004</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>0.85998300000000005</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <v>0.73106000000000004</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.87087700000000001</v>
       </c>
     </row>
@@ -1344,16 +1598,16 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.80269199999999996</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.82466700000000004</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <v>0.77711699999999995</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0.82826699999999998</v>
       </c>
     </row>
@@ -1362,16 +1616,16 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.75257600000000002</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.73373299999999997</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <v>0.77585099999999996</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.72930099999999998</v>
       </c>
     </row>
@@ -1398,6 +1652,18 @@
       <c r="A130" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="M3:M16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="131" orientation="portrait" r:id="rId1"/>
 </worksheet>
